--- a/gantt-chart_L(OG).xlsx
+++ b/gantt-chart_L(OG).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borno\Desktop\SP-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,6 +28,7 @@
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -452,15 +453,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="161">
   <si>
     <t>[Company Name]</t>
   </si>
   <si>
     <t>WBS</t>
-  </si>
-  <si>
-    <t>TEMPLATE ROWS</t>
   </si>
   <si>
     <t>Input Cell</t>
@@ -579,9 +577,6 @@
   </si>
   <si>
     <t>The expanded set of template rows provides more options for defining the Start date, End date,</t>
-  </si>
-  <si>
-    <t>See the Help worksheet to learn how to use these rows. You can hide these rows before printing.</t>
   </si>
   <si>
     <t>and Duration of tasks. Define a task based on …</t>
@@ -706,9 +701,6 @@
   </si>
   <si>
     <t>Please read the license agreement in the TermsOfUse worksheet to learn how you may or may not use and share this spreadsheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> . . . [ Level 4 Task ]</t>
   </si>
   <si>
     <t>TASK</t>
@@ -2997,7 +2989,85 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="13">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3131,14 +3201,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95673</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>225213</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3198,8 +3268,8 @@
         <xdr:to>
           <xdr:col>27</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3781,8 +3851,8 @@
   <dimension ref="A1:BN44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3800,9 +3870,9 @@
     <col min="67" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="121" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -3811,7 +3881,7 @@
       <c r="F1" s="46"/>
       <c r="I1" s="127"/>
       <c r="K1" s="159" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L1" s="159"/>
       <c r="M1" s="159"/>
@@ -3834,7 +3904,7 @@
       <c r="AD1" s="159"/>
       <c r="AE1" s="159"/>
     </row>
-    <row r="2" spans="1:66" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
@@ -3845,7 +3915,7 @@
       <c r="F2" s="155"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:66" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
       <c r="B3" s="47"/>
       <c r="C3" s="4"/>
@@ -3872,19 +3942,19 @@
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
     </row>
-    <row r="4" spans="1:66" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="106"/>
       <c r="B4" s="110" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="164">
-        <v>43129</v>
+        <v>44355</v>
       </c>
       <c r="D4" s="164"/>
       <c r="E4" s="164"/>
       <c r="F4" s="107"/>
       <c r="G4" s="110" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H4" s="125">
         <v>1</v>
@@ -3972,10 +4042,10 @@
       <c r="BM4" s="162"/>
       <c r="BN4" s="163"/>
     </row>
-    <row r="5" spans="1:66" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="106"/>
       <c r="B5" s="110" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="160"/>
       <c r="D5" s="160"/>
@@ -3987,7 +4057,7 @@
       <c r="J5" s="49"/>
       <c r="K5" s="165">
         <f>K6</f>
-        <v>43129</v>
+        <v>44354</v>
       </c>
       <c r="L5" s="166"/>
       <c r="M5" s="166"/>
@@ -3997,7 +4067,7 @@
       <c r="Q5" s="167"/>
       <c r="R5" s="165">
         <f>R6</f>
-        <v>43136</v>
+        <v>44361</v>
       </c>
       <c r="S5" s="166"/>
       <c r="T5" s="166"/>
@@ -4007,7 +4077,7 @@
       <c r="X5" s="167"/>
       <c r="Y5" s="165">
         <f>Y6</f>
-        <v>43143</v>
+        <v>44368</v>
       </c>
       <c r="Z5" s="166"/>
       <c r="AA5" s="166"/>
@@ -4017,7 +4087,7 @@
       <c r="AE5" s="167"/>
       <c r="AF5" s="165">
         <f>AF6</f>
-        <v>43150</v>
+        <v>44375</v>
       </c>
       <c r="AG5" s="166"/>
       <c r="AH5" s="166"/>
@@ -4027,7 +4097,7 @@
       <c r="AL5" s="167"/>
       <c r="AM5" s="165">
         <f>AM6</f>
-        <v>43157</v>
+        <v>44382</v>
       </c>
       <c r="AN5" s="166"/>
       <c r="AO5" s="166"/>
@@ -4037,7 +4107,7 @@
       <c r="AS5" s="167"/>
       <c r="AT5" s="165">
         <f>AT6</f>
-        <v>43164</v>
+        <v>44389</v>
       </c>
       <c r="AU5" s="166"/>
       <c r="AV5" s="166"/>
@@ -4047,7 +4117,7 @@
       <c r="AZ5" s="167"/>
       <c r="BA5" s="165">
         <f>BA6</f>
-        <v>43171</v>
+        <v>44396</v>
       </c>
       <c r="BB5" s="166"/>
       <c r="BC5" s="166"/>
@@ -4057,7 +4127,7 @@
       <c r="BG5" s="167"/>
       <c r="BH5" s="165">
         <f>BH6</f>
-        <v>43178</v>
+        <v>44403</v>
       </c>
       <c r="BI5" s="166"/>
       <c r="BJ5" s="166"/>
@@ -4066,7 +4136,7 @@
       <c r="BM5" s="166"/>
       <c r="BN5" s="167"/>
     </row>
-    <row r="6" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -4079,227 +4149,227 @@
       <c r="J6" s="49"/>
       <c r="K6" s="88">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>43129</v>
+        <v>44354</v>
       </c>
       <c r="L6" s="79">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>43130</v>
+        <v>44355</v>
       </c>
       <c r="M6" s="79">
         <f t="shared" si="0"/>
-        <v>43131</v>
+        <v>44356</v>
       </c>
       <c r="N6" s="79">
         <f t="shared" si="0"/>
-        <v>43132</v>
+        <v>44357</v>
       </c>
       <c r="O6" s="79">
         <f t="shared" si="0"/>
-        <v>43133</v>
+        <v>44358</v>
       </c>
       <c r="P6" s="79">
         <f t="shared" si="0"/>
-        <v>43134</v>
+        <v>44359</v>
       </c>
       <c r="Q6" s="89">
         <f t="shared" si="0"/>
-        <v>43135</v>
+        <v>44360</v>
       </c>
       <c r="R6" s="88">
         <f t="shared" si="0"/>
-        <v>43136</v>
+        <v>44361</v>
       </c>
       <c r="S6" s="79">
         <f t="shared" si="0"/>
-        <v>43137</v>
+        <v>44362</v>
       </c>
       <c r="T6" s="79">
         <f t="shared" si="0"/>
-        <v>43138</v>
+        <v>44363</v>
       </c>
       <c r="U6" s="79">
         <f t="shared" si="0"/>
-        <v>43139</v>
+        <v>44364</v>
       </c>
       <c r="V6" s="79">
         <f t="shared" si="0"/>
-        <v>43140</v>
+        <v>44365</v>
       </c>
       <c r="W6" s="79">
         <f t="shared" si="0"/>
-        <v>43141</v>
+        <v>44366</v>
       </c>
       <c r="X6" s="89">
         <f t="shared" si="0"/>
-        <v>43142</v>
+        <v>44367</v>
       </c>
       <c r="Y6" s="88">
         <f t="shared" si="0"/>
-        <v>43143</v>
+        <v>44368</v>
       </c>
       <c r="Z6" s="79">
         <f t="shared" si="0"/>
-        <v>43144</v>
+        <v>44369</v>
       </c>
       <c r="AA6" s="79">
         <f t="shared" si="0"/>
-        <v>43145</v>
+        <v>44370</v>
       </c>
       <c r="AB6" s="79">
         <f t="shared" si="0"/>
-        <v>43146</v>
+        <v>44371</v>
       </c>
       <c r="AC6" s="79">
         <f t="shared" si="0"/>
-        <v>43147</v>
+        <v>44372</v>
       </c>
       <c r="AD6" s="79">
         <f t="shared" si="0"/>
-        <v>43148</v>
+        <v>44373</v>
       </c>
       <c r="AE6" s="89">
         <f t="shared" si="0"/>
-        <v>43149</v>
+        <v>44374</v>
       </c>
       <c r="AF6" s="88">
         <f t="shared" si="0"/>
-        <v>43150</v>
+        <v>44375</v>
       </c>
       <c r="AG6" s="79">
         <f t="shared" si="0"/>
-        <v>43151</v>
+        <v>44376</v>
       </c>
       <c r="AH6" s="79">
         <f t="shared" si="0"/>
-        <v>43152</v>
+        <v>44377</v>
       </c>
       <c r="AI6" s="79">
         <f t="shared" si="0"/>
-        <v>43153</v>
+        <v>44378</v>
       </c>
       <c r="AJ6" s="79">
         <f t="shared" si="0"/>
-        <v>43154</v>
+        <v>44379</v>
       </c>
       <c r="AK6" s="79">
         <f t="shared" si="0"/>
-        <v>43155</v>
+        <v>44380</v>
       </c>
       <c r="AL6" s="89">
         <f t="shared" si="0"/>
-        <v>43156</v>
+        <v>44381</v>
       </c>
       <c r="AM6" s="88">
         <f t="shared" si="0"/>
-        <v>43157</v>
+        <v>44382</v>
       </c>
       <c r="AN6" s="79">
         <f t="shared" si="0"/>
-        <v>43158</v>
+        <v>44383</v>
       </c>
       <c r="AO6" s="79">
         <f t="shared" si="0"/>
-        <v>43159</v>
+        <v>44384</v>
       </c>
       <c r="AP6" s="79">
         <f t="shared" si="0"/>
-        <v>43160</v>
+        <v>44385</v>
       </c>
       <c r="AQ6" s="79">
         <f t="shared" si="0"/>
-        <v>43161</v>
+        <v>44386</v>
       </c>
       <c r="AR6" s="79">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>43162</v>
+        <v>44387</v>
       </c>
       <c r="AS6" s="89">
         <f t="shared" si="1"/>
-        <v>43163</v>
+        <v>44388</v>
       </c>
       <c r="AT6" s="88">
         <f t="shared" si="1"/>
-        <v>43164</v>
+        <v>44389</v>
       </c>
       <c r="AU6" s="79">
         <f t="shared" si="1"/>
-        <v>43165</v>
+        <v>44390</v>
       </c>
       <c r="AV6" s="79">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>44391</v>
       </c>
       <c r="AW6" s="79">
         <f t="shared" si="1"/>
-        <v>43167</v>
+        <v>44392</v>
       </c>
       <c r="AX6" s="79">
         <f t="shared" si="1"/>
-        <v>43168</v>
+        <v>44393</v>
       </c>
       <c r="AY6" s="79">
         <f t="shared" si="1"/>
-        <v>43169</v>
+        <v>44394</v>
       </c>
       <c r="AZ6" s="89">
         <f t="shared" si="1"/>
-        <v>43170</v>
+        <v>44395</v>
       </c>
       <c r="BA6" s="88">
         <f t="shared" si="1"/>
-        <v>43171</v>
+        <v>44396</v>
       </c>
       <c r="BB6" s="79">
         <f t="shared" si="1"/>
-        <v>43172</v>
+        <v>44397</v>
       </c>
       <c r="BC6" s="79">
         <f t="shared" si="1"/>
-        <v>43173</v>
+        <v>44398</v>
       </c>
       <c r="BD6" s="79">
         <f t="shared" si="1"/>
-        <v>43174</v>
+        <v>44399</v>
       </c>
       <c r="BE6" s="79">
         <f t="shared" si="1"/>
-        <v>43175</v>
+        <v>44400</v>
       </c>
       <c r="BF6" s="79">
         <f t="shared" si="1"/>
-        <v>43176</v>
+        <v>44401</v>
       </c>
       <c r="BG6" s="89">
         <f t="shared" si="1"/>
-        <v>43177</v>
+        <v>44402</v>
       </c>
       <c r="BH6" s="88">
         <f t="shared" si="1"/>
-        <v>43178</v>
+        <v>44403</v>
       </c>
       <c r="BI6" s="79">
         <f t="shared" si="1"/>
-        <v>43179</v>
+        <v>44404</v>
       </c>
       <c r="BJ6" s="79">
         <f t="shared" si="1"/>
-        <v>43180</v>
+        <v>44405</v>
       </c>
       <c r="BK6" s="79">
         <f t="shared" si="1"/>
-        <v>43181</v>
+        <v>44406</v>
       </c>
       <c r="BL6" s="79">
         <f t="shared" si="1"/>
-        <v>43182</v>
+        <v>44407</v>
       </c>
       <c r="BM6" s="79">
         <f t="shared" si="1"/>
-        <v>43183</v>
+        <v>44408</v>
       </c>
       <c r="BN6" s="89">
         <f t="shared" si="1"/>
-        <v>43184</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="7" spans="1:66" s="120" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4307,28 +4377,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="G7" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="115" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="116" t="s">
+      <c r="H7" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="116" t="s">
+      <c r="I7" s="114" t="s">
         <v>68</v>
-      </c>
-      <c r="G7" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="114" t="s">
-        <v>71</v>
       </c>
       <c r="J7" s="114"/>
       <c r="K7" s="117" t="str">
@@ -4562,10 +4632,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D8" s="83"/>
       <c r="E8" s="84"/>
@@ -4643,7 +4713,7 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="122" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D9" s="123"/>
       <c r="E9" s="96">
@@ -4651,17 +4721,17 @@
       </c>
       <c r="F9" s="97">
         <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
-        <v>44361</v>
+        <v>44368</v>
       </c>
       <c r="G9" s="61">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H9" s="62">
         <v>1</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J9" s="91"/>
       <c r="K9" s="103"/>
@@ -4721,31 +4791,31 @@
       <c r="BM9" s="103"/>
       <c r="BN9" s="103"/>
     </row>
-    <row r="10" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="str">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="B10" s="122" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D10" s="123"/>
       <c r="E10" s="96">
-        <v>44357</v>
+        <v>44359</v>
       </c>
       <c r="F10" s="97">
         <f t="shared" ref="F10:F35" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v>44360</v>
+        <v>44366</v>
       </c>
       <c r="G10" s="61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H10" s="62">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" s="91"/>
       <c r="K10" s="103"/>
@@ -4811,25 +4881,25 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="122" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D11" s="123"/>
       <c r="E11" s="96">
-        <v>44361</v>
+        <v>44365</v>
       </c>
       <c r="F11" s="97">
         <f t="shared" si="6"/>
-        <v>44365</v>
+        <v>44372</v>
       </c>
       <c r="G11" s="61">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H11" s="62">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="91"/>
       <c r="K11" s="103"/>
@@ -5387,10 +5457,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="98"/>
@@ -5462,31 +5532,31 @@
       <c r="BM18" s="105"/>
       <c r="BN18" s="105"/>
     </row>
-    <row r="19" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
       <c r="B19" s="122" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D19" s="123"/>
       <c r="E19" s="96">
-        <v>44366</v>
+        <v>44373</v>
       </c>
       <c r="F19" s="97">
         <f t="shared" si="6"/>
-        <v>44369</v>
+        <v>44380</v>
       </c>
       <c r="G19" s="61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H19" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J19" s="91"/>
       <c r="K19" s="103"/>
@@ -5546,31 +5616,31 @@
       <c r="BM19" s="103"/>
       <c r="BN19" s="103"/>
     </row>
-    <row r="20" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
       <c r="B20" s="122" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D20" s="123"/>
       <c r="E20" s="96">
-        <v>44370</v>
+        <v>44380</v>
       </c>
       <c r="F20" s="97">
         <f t="shared" si="6"/>
-        <v>44372</v>
+        <v>44385</v>
       </c>
       <c r="G20" s="61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H20" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="91"/>
       <c r="K20" s="103"/>
@@ -5636,25 +5706,25 @@
         <v>2.3</v>
       </c>
       <c r="B21" s="122" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D21" s="123"/>
       <c r="E21" s="96">
-        <v>44373</v>
+        <v>44386</v>
       </c>
       <c r="F21" s="97">
         <f t="shared" si="6"/>
-        <v>44375</v>
+        <v>44391</v>
       </c>
       <c r="G21" s="61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H21" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" s="91"/>
       <c r="K21" s="103"/>
@@ -5720,21 +5790,21 @@
         <v>2.4</v>
       </c>
       <c r="B22" s="122" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D22" s="123"/>
       <c r="E22" s="96">
-        <v>44375</v>
+        <v>44391</v>
       </c>
       <c r="F22" s="97">
         <f t="shared" si="6"/>
-        <v>44377</v>
+        <v>44394</v>
       </c>
       <c r="G22" s="61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="62">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" si="4"/>
@@ -5804,25 +5874,25 @@
         <v>2.5</v>
       </c>
       <c r="B23" s="122" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D23" s="123"/>
       <c r="E23" s="96">
-        <v>44378</v>
+        <v>44395</v>
       </c>
       <c r="F23" s="97">
         <f t="shared" si="6"/>
-        <v>44382</v>
+        <v>44399</v>
       </c>
       <c r="G23" s="61">
         <v>5</v>
       </c>
       <c r="H23" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" s="91"/>
       <c r="K23" s="103"/>
@@ -5888,10 +5958,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="98"/>
@@ -5969,25 +6039,25 @@
         <v>3.1</v>
       </c>
       <c r="B25" s="122" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="123"/>
       <c r="E25" s="96">
-        <v>43141</v>
+        <v>44400</v>
       </c>
       <c r="F25" s="97">
-        <f t="shared" si="6"/>
-        <v>43144</v>
+        <f t="shared" ref="F25:F26" si="7">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+        <v>44402</v>
       </c>
       <c r="G25" s="61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="63">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" ref="I25:I26" si="8">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
+        <v>1</v>
       </c>
       <c r="J25" s="91"/>
       <c r="K25" s="103"/>
@@ -6053,25 +6123,25 @@
         <v>3.2</v>
       </c>
       <c r="B26" s="122" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D26" s="123"/>
       <c r="E26" s="96">
-        <v>43145</v>
+        <v>43141</v>
       </c>
       <c r="F26" s="97">
-        <f t="shared" si="6"/>
-        <v>43147</v>
+        <f t="shared" si="7"/>
+        <v>43144</v>
       </c>
       <c r="G26" s="61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="62">
         <v>0</v>
       </c>
       <c r="I26" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="J26" s="91"/>
       <c r="K26" s="103"/>
@@ -6131,13 +6201,13 @@
       <c r="BM26" s="103"/>
       <c r="BN26" s="103"/>
     </row>
-    <row r="27" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
       <c r="B27" s="122" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D27" s="123"/>
       <c r="E27" s="96">
@@ -6221,25 +6291,25 @@
         <v>3.4</v>
       </c>
       <c r="B28" s="122" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="D28" s="123"/>
       <c r="E28" s="96">
-        <v>43148</v>
+        <v>43141</v>
       </c>
       <c r="F28" s="97">
-        <f t="shared" si="6"/>
-        <v>43153</v>
+        <f t="shared" ref="F28" si="9">IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
+        <v>43144</v>
       </c>
       <c r="G28" s="61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28" s="62">
         <v>0</v>
       </c>
       <c r="I28" s="63">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="I28" si="10">IF(OR(F28=0,E28=0)," - ",NETWORKDAYS(E28,F28))</f>
+        <v>2</v>
       </c>
       <c r="J28" s="91"/>
       <c r="K28" s="103"/>
@@ -6305,7 +6375,7 @@
         <v>3.5</v>
       </c>
       <c r="B29" s="122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="123"/>
       <c r="E29" s="96">
@@ -6389,10 +6459,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="98"/>
@@ -6464,13 +6534,13 @@
       <c r="BM30" s="105"/>
       <c r="BN30" s="105"/>
     </row>
-    <row r="31" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
       <c r="B31" s="122" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D31" s="123"/>
       <c r="E31" s="96">
@@ -6554,7 +6624,7 @@
         <v>4.2</v>
       </c>
       <c r="B32" s="122" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D32" s="123"/>
       <c r="E32" s="96">
@@ -6638,7 +6708,7 @@
         <v>4.3</v>
       </c>
       <c r="B33" s="122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="123"/>
       <c r="E33" s="96">
@@ -6722,7 +6792,7 @@
         <v>4.4</v>
       </c>
       <c r="B34" s="122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="123"/>
       <c r="E34" s="96">
@@ -6806,7 +6876,7 @@
         <v>4.5</v>
       </c>
       <c r="B35" s="122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="123"/>
       <c r="E35" s="96">
@@ -6885,12 +6955,14 @@
       <c r="BN35" s="103"/>
     </row>
     <row r="36" spans="1:66" s="68" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="59">
+        <v>5</v>
+      </c>
       <c r="B36" s="53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D36" s="64"/>
       <c r="E36" s="99"/>
@@ -6960,9 +7032,11 @@
       <c r="BN36" s="103"/>
     </row>
     <row r="37" spans="1:66" s="68" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
+      <c r="A37" s="59">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="B37" s="122" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C37" s="60"/>
       <c r="D37" s="64"/>
@@ -7033,11 +7107,11 @@
       <c r="BN37" s="103"/>
     </row>
     <row r="38" spans="1:66" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="69" t="s">
-        <v>2</v>
+      <c r="A38" s="69">
+        <v>5.2</v>
       </c>
       <c r="B38" s="122" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C38" s="60"/>
       <c r="D38" s="70"/>
@@ -7105,11 +7179,11 @@
       <c r="BN38" s="103"/>
     </row>
     <row r="39" spans="1:66" s="68" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="73" t="s">
-        <v>39</v>
+      <c r="A39" s="73">
+        <v>5.3</v>
       </c>
       <c r="B39" s="122" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C39" s="60"/>
       <c r="D39" s="74"/>
@@ -7179,16 +7253,16 @@
     <row r="40" spans="1:66" s="68" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="126" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B40" s="122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C40" s="60"/>
       <c r="D40" s="75"/>
       <c r="E40" s="96"/>
       <c r="F40" s="97" t="str">
-        <f t="shared" ref="F40:F43" si="7">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
+        <f t="shared" ref="F40:F43" si="11">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G40" s="61"/>
@@ -7258,24 +7332,24 @@
     <row r="41" spans="1:66" s="68" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D41" s="75"/>
       <c r="E41" s="96"/>
       <c r="F41" s="97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G41" s="61"/>
       <c r="H41" s="62"/>
       <c r="I41" s="76" t="str">
-        <f t="shared" ref="I41:I43" si="8">IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
+        <f t="shared" ref="I41:I43" si="12">IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J41" s="95"/>
@@ -7336,25 +7410,25 @@
       <c r="BM41" s="103"/>
       <c r="BN41" s="103"/>
     </row>
-    <row r="42" spans="1:66" s="68" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:66" s="68" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
+        <v>6.1.1</v>
       </c>
       <c r="B42" s="122" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C42" s="60"/>
       <c r="D42" s="75"/>
       <c r="E42" s="96"/>
       <c r="F42" s="97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G42" s="61"/>
       <c r="H42" s="62"/>
       <c r="I42" s="76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J42" s="95"/>
@@ -7416,26 +7490,15 @@
       <c r="BN42" s="103"/>
     </row>
     <row r="43" spans="1:66" s="68" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B43" s="78" t="s">
-        <v>64</v>
-      </c>
+      <c r="A43" s="59"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="77"/>
       <c r="D43" s="75"/>
       <c r="E43" s="96"/>
-      <c r="F43" s="97" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
+      <c r="F43" s="97"/>
       <c r="G43" s="61"/>
       <c r="H43" s="62"/>
-      <c r="I43" s="76" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
+      <c r="I43" s="76"/>
       <c r="J43" s="95"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
@@ -7495,10 +7558,7 @@
       <c r="BN43" s="103"/>
     </row>
     <row r="44" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="158" t="str">
-        <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
-        <v>► Watch How to Create a Gantt Chart in Excel</v>
-      </c>
+      <c r="A44" s="158"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="31"/>
@@ -7589,8 +7649,8 @@
     <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H43">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="H8:H24 H29:H43 H27">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7604,20 +7664,101 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="3" priority="45">
+    <cfRule type="expression" dxfId="12" priority="57">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN43">
-    <cfRule type="expression" dxfId="2" priority="48">
+  <conditionalFormatting sqref="K8:BN24 K29:BN43 K27:BN27">
+    <cfRule type="expression" dxfId="11" priority="60">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="49">
+    <cfRule type="expression" dxfId="10" priority="61">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN43">
-    <cfRule type="expression" dxfId="0" priority="8">
+  <conditionalFormatting sqref="K6:BN24 K29:BN43 K27:BN27">
+    <cfRule type="expression" dxfId="9" priority="20">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7640D85C-0379-4D6C-BA01-B1BAF0C4DD41}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:BN28">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>AND($E28&lt;=K$6,ROUNDDOWN(($F28-$E28+1)*$H28,0)+$E28-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>AND(NOT(ISBLANK($E28)),$E28&lt;=K$6,$F28&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:BN28">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{11CF6136-D66B-466F-A917-DB7BBAF62FCB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:BN25">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND($E25&lt;=K$6,ROUNDDOWN(($F25-$E25+1)*$H25,0)+$E25-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND(NOT(ISBLANK($E25)),$E25&lt;=K$6,$F25&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:BN25">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5606C0B0-B300-4EEC-8451-B57E9514C980}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:BN26">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($E26&lt;=K$6,ROUNDDOWN(($F26-$E26+1)*$H26,0)+$E26-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK($E26)),$E26&lt;=K$6,$F26&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:BN26">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7631,7 +7772,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A36:A37 G13:H13 G12 G16 G14:H14 A39 E18 E24 E30 E36:H39 G15 G18:H18 G24:H24 G30:H34 H22 G40 G41:G42 G43 H20 H21 H25:H28" unlockedFormula="1"/>
+    <ignoredError sqref="H9 G13:H13 G12 G16 G14:H14 E18 E24 E30 E36:H39 G15 G18:H18 G24:H24 G30:H34 G40 G41:G42 H27" unlockedFormula="1"/>
     <ignoredError sqref="A30 A24 A18" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
@@ -7653,8 +7794,8 @@
                   <to>
                     <xdr:col>27</xdr:col>
                     <xdr:colOff>104775</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7680,7 +7821,52 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H43</xm:sqref>
+          <xm:sqref>H8:H24 H29:H43 H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7640D85C-0379-4D6C-BA01-B1BAF0C4DD41}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{11CF6136-D66B-466F-A917-DB7BBAF62FCB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5606C0B0-B300-4EEC-8451-B57E9514C980}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7709,17 +7895,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -7727,149 +7913,149 @@
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:2" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7903,14 +8089,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
@@ -7922,34 +8108,34 @@
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="128" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="B5" s="134" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="134" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="133" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="132" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="168"/>
     </row>
@@ -7957,55 +8143,55 @@
     <row r="15" spans="1:3" s="129" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="137"/>
       <c r="B15" s="135" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="129" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="137"/>
       <c r="B16" s="136" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C16" s="131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="138"/>
       <c r="B17" s="136" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="138"/>
       <c r="B18" s="136" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="141"/>
       <c r="B19" s="136" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="129" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="137"/>
       <c r="B20" s="135" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="138"/>
       <c r="B21" s="136" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="139"/>
       <c r="B22" s="140" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8014,14 +8200,14 @@
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="168" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" s="168"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A25" s="139"/>
       <c r="B25" s="136" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8031,19 +8217,19 @@
     <row r="27" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="139"/>
       <c r="B27" s="157" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="139"/>
       <c r="B28" s="136" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="139"/>
       <c r="B29" s="136" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8053,19 +8239,19 @@
     <row r="31" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="139"/>
       <c r="B31" s="157" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="139"/>
       <c r="B32" s="136" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="139"/>
       <c r="B33" s="136" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8075,13 +8261,13 @@
     <row r="35" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="139"/>
       <c r="B35" s="136" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="139"/>
       <c r="B36" s="142" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8090,31 +8276,31 @@
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="168"/>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="136" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:2" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B41" s="136" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:2" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="136" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B45" s="136" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -8122,7 +8308,7 @@
     </row>
     <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="136" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -8130,13 +8316,13 @@
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="168"/>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="136" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -8144,86 +8330,86 @@
     </row>
     <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="136" t="s">
         <v>12</v>
-      </c>
-      <c r="B52" s="136" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="136" t="s">
         <v>14</v>
-      </c>
-      <c r="B53" s="136" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="143" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="136" t="s">
         <v>16</v>
-      </c>
-      <c r="B54" s="136" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="132"/>
       <c r="B55" s="136" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="132"/>
       <c r="B56" s="136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="136" t="s">
         <v>18</v>
-      </c>
-      <c r="B57" s="136" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="132"/>
       <c r="B58" s="136" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="132"/>
       <c r="B59" s="136" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="136" t="s">
         <v>20</v>
-      </c>
-      <c r="B60" s="136" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="132"/>
       <c r="B61" s="136" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="143" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B62" s="136" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="144"/>
       <c r="B63" s="136" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -8231,13 +8417,13 @@
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" s="168"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="136" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -8245,22 +8431,22 @@
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" s="168"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69" s="152" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="145"/>
       <c r="B70" s="150" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -8269,16 +8455,16 @@
     </row>
     <row r="72" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72" s="152" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="145"/>
       <c r="B73" s="150" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -8287,16 +8473,16 @@
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" s="154" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="145"/>
       <c r="B76" s="134" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -8305,16 +8491,16 @@
     </row>
     <row r="78" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" s="154" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="145"/>
       <c r="B79" s="134" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -8323,28 +8509,28 @@
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" s="154" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="145"/>
       <c r="B82" s="149" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="145"/>
       <c r="B83" s="149" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="145"/>
       <c r="B84" s="149" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -8353,28 +8539,28 @@
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86" s="154" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A87" s="145"/>
       <c r="B87" s="134" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="145"/>
       <c r="B88" s="147" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A89" s="145"/>
       <c r="B89" s="153" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -8383,21 +8569,21 @@
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91" s="156" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="132"/>
       <c r="B92" s="149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -8440,7 +8626,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="44"/>
@@ -8455,14 +8641,14 @@
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="15"/>
     </row>
@@ -8474,7 +8660,7 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -8486,7 +8672,7 @@
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="15"/>
     </row>
@@ -8498,7 +8684,7 @@
     <row r="10" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="15"/>
     </row>
@@ -8510,7 +8696,7 @@
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="15"/>
     </row>
@@ -8522,7 +8708,7 @@
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -8534,7 +8720,7 @@
     <row r="16" spans="1:4" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -8546,14 +8732,14 @@
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="15"/>
     </row>
